--- a/tests/test_files/Inputs_cmds.xlsx
+++ b/tests/test_files/Inputs_cmds.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC125E9-15DB-44DD-9AEA-75801EBABD63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286AF22-1A54-42CE-A7F7-28BE3310EFA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28365" yWindow="1350" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="228">
   <si>
     <t>Name</t>
   </si>
@@ -559,9 +559,6 @@
     <t xml:space="preserve">	ldf.vlmax </t>
   </si>
   <si>
-    <t xml:space="preserve">	#ldf.outcmd </t>
-  </si>
-  <si>
     <t xml:space="preserve">	ldf.iopt_chctr </t>
   </si>
   <si>
@@ -715,15 +712,9 @@
     <t>Upper Limit of Allowed Voltage</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Check Control Conditions</t>
   </si>
   <si>
-    <t>Command</t>
-  </si>
-  <si>
     <t>Load Scaling Factor</t>
   </si>
   <si>
@@ -784,9 +775,6 @@
     <t xml:space="preserve">ldf.rembar </t>
   </si>
   <si>
-    <t xml:space="preserve">ldf.chkcmd </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Basic</t>
   </si>
   <si>
@@ -850,12 +838,6 @@
     <t>Calculate R, X at output frequency for all nodes</t>
   </si>
   <si>
-    <t>cmd</t>
-  </si>
-  <si>
-    <t>ldf</t>
-  </si>
-  <si>
     <t>Pre_Case_Check</t>
   </si>
   <si>
@@ -899,9 +881,6 @@
   </si>
   <si>
     <t>BASE</t>
-  </si>
-  <si>
-    <t>EirGrid\Turlough Hill\220 kV T2001/2 TCB</t>
   </si>
   <si>
     <t>Reference Busbar (NetElements\Substation\Terminal)</t>
@@ -1392,7 +1371,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1460,6 +1438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1901,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,7 +1890,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,14 +1911,14 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>178</v>
+      <c r="B7" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="C7" s="4">
         <v>43977</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>234</v>
+      <c r="D7" s="35" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,15 +1929,15 @@
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4"/>
     </row>
   </sheetData>
@@ -1992,101 +1971,101 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>193</v>
+      <c r="A2" s="28" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>192</v>
+      <c r="A5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>194</v>
+      <c r="C6" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="14" t="b">
+      <c r="A7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>171</v>
+      <c r="C7" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="14" t="b">
+      <c r="A8" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>172</v>
+      <c r="C8" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="14" t="b">
+      <c r="A9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>180</v>
+      <c r="C9" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="14" t="b">
+        <v>163</v>
+      </c>
+      <c r="B10" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>173</v>
+      <c r="C10" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="14" t="b">
+      <c r="A11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>174</v>
+      <c r="C11" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="14" t="b">
+      <c r="A12" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>233</v>
+      <c r="C12" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2130,140 +2109,140 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
@@ -2304,158 +2283,158 @@
       <c r="A2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>207</v>
+      <c r="A3" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="38" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="38" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="38" t="s">
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="38" t="s">
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="38" t="s">
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="38" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="38" t="s">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="40"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
     </row>
     <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="35" t="s">
+      <c r="P5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="T5" s="35" t="s">
+      <c r="S5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="T5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="W5" s="35" t="s">
+      <c r="V5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="W5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="34" t="s">
+      <c r="X5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z5" s="35" t="s">
+      <c r="Y5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AA5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="34" t="s">
-        <v>176</v>
+      <c r="AB5" s="33" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2489,31 +2468,31 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+        <v>206</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2533,43 +2512,43 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>222</v>
+      <c r="L8" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2595,11 +2574,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2625,11 +2604,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2655,11 +2634,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2685,11 +2664,11 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2715,11 +2694,11 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2745,11 +2724,11 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2775,11 +2754,11 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2805,11 +2784,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2835,11 +2814,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2865,11 +2844,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2895,11 +2874,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2925,11 +2904,11 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2955,11 +2934,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2985,11 +2964,11 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3015,11 +2994,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -3045,11 +3024,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -3075,11 +3054,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3105,11 +3084,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -3135,11 +3114,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -3165,11 +3144,11 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3195,11 +3174,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -3225,11 +3204,11 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3255,11 +3234,11 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3285,11 +3264,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -3315,11 +3294,11 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -3345,11 +3324,11 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3375,11 +3354,11 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -3405,11 +3384,11 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3435,11 +3414,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3465,11 +3444,11 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3495,11 +3474,11 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3525,11 +3504,11 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3555,11 +3534,11 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3585,11 +3564,11 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -3615,11 +3594,11 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3645,11 +3624,11 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3675,11 +3654,11 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3705,11 +3684,11 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -3735,11 +3714,11 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3765,11 +3744,11 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3795,11 +3774,11 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3825,11 +3804,11 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3855,11 +3834,11 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -3885,11 +3864,11 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -3915,11 +3894,11 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -3945,11 +3924,11 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -3975,11 +3954,11 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -4005,11 +3984,11 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -4035,11 +4014,11 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -4065,11 +4044,11 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -4095,11 +4074,11 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -4125,11 +4104,11 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -4155,11 +4134,11 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -4185,11 +4164,11 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -4215,11 +4194,11 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -4245,11 +4224,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -4275,11 +4254,11 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -4305,11 +4284,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -4335,11 +4314,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -4365,11 +4344,11 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -4395,11 +4374,11 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -4425,11 +4404,11 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -4455,11 +4434,11 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -4485,11 +4464,11 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -4515,11 +4494,11 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -4545,11 +4524,11 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -4575,11 +4554,11 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -4605,11 +4584,11 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -4635,11 +4614,11 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -4665,11 +4644,11 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -4695,11 +4674,11 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -4725,11 +4704,11 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -4755,11 +4734,11 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -4785,11 +4764,11 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -4815,11 +4794,11 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -4845,11 +4824,11 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -4875,11 +4854,11 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -4905,11 +4884,11 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -4935,11 +4914,11 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -4965,11 +4944,11 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -4995,11 +4974,11 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -5025,11 +5004,11 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -5055,11 +5034,11 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -5085,11 +5064,11 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -5115,11 +5094,11 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -5145,11 +5124,11 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -5175,11 +5154,11 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -5205,11 +5184,11 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -5235,11 +5214,11 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -5265,11 +5244,11 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -5295,11 +5274,11 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -5325,11 +5304,11 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -5355,11 +5334,11 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -5385,11 +5364,11 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -5415,11 +5394,11 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
@@ -5445,11 +5424,11 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
@@ -5475,11 +5454,11 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
@@ -5505,11 +5484,11 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -5535,11 +5514,11 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -5565,11 +5544,11 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -5595,11 +5574,11 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
@@ -5625,11 +5604,11 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -5655,11 +5634,11 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -5685,11 +5664,11 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -5715,11 +5694,11 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
@@ -5745,11 +5724,11 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -5775,11 +5754,11 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -5805,11 +5784,11 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -5835,11 +5814,11 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -5865,11 +5844,11 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -5895,11 +5874,11 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -5925,11 +5904,11 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
@@ -5955,11 +5934,11 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -5985,11 +5964,11 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -6015,11 +5994,11 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
@@ -6045,11 +6024,11 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -6075,11 +6054,11 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
@@ -6105,11 +6084,11 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
@@ -6135,11 +6114,11 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
@@ -6165,11 +6144,11 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
@@ -6195,11 +6174,11 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
@@ -6225,11 +6204,11 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
@@ -6255,11 +6234,11 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
@@ -6285,11 +6264,11 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
@@ -6315,11 +6294,11 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
@@ -6345,11 +6324,11 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
@@ -6375,11 +6354,11 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -6405,11 +6384,11 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
@@ -6435,11 +6414,11 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
@@ -6465,11 +6444,11 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
@@ -6495,11 +6474,11 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -6525,11 +6504,11 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
@@ -6555,11 +6534,11 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
@@ -6585,11 +6564,11 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
@@ -6615,11 +6594,11 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
@@ -6645,11 +6624,11 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
@@ -6675,11 +6654,11 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
@@ -6705,11 +6684,11 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
@@ -6735,11 +6714,11 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
@@ -6765,11 +6744,11 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
@@ -6795,11 +6774,11 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
@@ -6825,11 +6804,11 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
@@ -6855,11 +6834,11 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
@@ -6885,11 +6864,11 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
@@ -6915,11 +6894,11 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
@@ -6945,11 +6924,11 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
@@ -6975,11 +6954,11 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
@@ -7005,11 +6984,11 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
@@ -7035,11 +7014,11 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
@@ -7065,11 +7044,11 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
@@ -7095,11 +7074,11 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
@@ -7125,11 +7104,11 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -7155,11 +7134,11 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -7185,11 +7164,11 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
@@ -7215,11 +7194,11 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
@@ -7245,11 +7224,11 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
@@ -7275,11 +7254,11 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
@@ -7305,11 +7284,11 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
@@ -7392,34 +7371,34 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="str">
+      <c r="A3" s="26" t="str">
         <f t="array" ref="A3">IF(LEN(A5:A103)&gt;19,"NAME LONG", "NAMES OKAY")</f>
         <v>NAMES OKAY</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>177</v>
+      <c r="D4" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -7427,13 +7406,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -7441,13 +7420,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -7455,13 +7434,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -7474,13 +7453,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7540,7 +7519,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7552,25 +7531,25 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7606,13 +7585,13 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7642,7 +7621,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7660,7 +7639,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7672,7 +7651,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -7690,7 +7669,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -7702,13 +7681,13 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -7720,19 +7699,19 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -7756,7 +7735,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -7774,7 +7753,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -7792,7 +7771,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7840,19 +7819,19 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -7882,7 +7861,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -7894,7 +7873,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -7906,7 +7885,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -7930,7 +7909,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -7948,7 +7927,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -7972,15 +7951,15 @@
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="19"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7996,7 +7975,7 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -8008,31 +7987,31 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -8071,10 +8050,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8100,17 +8079,17 @@
       <c r="B1" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>186</v>
+      <c r="A4" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8120,11 +8099,11 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>134</v>
+      <c r="A5" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -8134,9 +8113,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -8146,9 +8125,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -8158,21 +8137,21 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -8182,9 +8161,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -8194,9 +8173,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -8206,9 +8185,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -8218,9 +8197,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -8230,9 +8209,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -8242,9 +8221,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -8254,11 +8233,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>135</v>
+      <c r="A16" s="43" t="s">
+        <v>132</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -8268,9 +8247,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -8280,9 +8259,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -8292,21 +8271,19 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>182</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -8316,11 +8293,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>136</v>
+      <c r="A21" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -8330,9 +8307,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -8342,9 +8319,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -8354,9 +8331,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -8366,9 +8343,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -8378,9 +8355,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
@@ -8390,9 +8367,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
@@ -8402,9 +8379,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -8414,9 +8391,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -8426,9 +8403,9 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
@@ -8438,9 +8415,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
@@ -8450,11 +8427,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>137</v>
+      <c r="A32" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
@@ -8464,9 +8441,9 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>54</v>
@@ -8476,9 +8453,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
@@ -8488,9 +8465,9 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -8500,9 +8477,9 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -8512,9 +8489,9 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
@@ -8524,9 +8501,9 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
         <v>59</v>
@@ -8536,9 +8513,9 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>60</v>
@@ -8548,11 +8525,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
-        <v>138</v>
+      <c r="A40" s="43" t="s">
+        <v>135</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
         <v>61</v>
@@ -8562,9 +8539,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
@@ -8574,9 +8551,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -8586,9 +8563,9 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
@@ -8598,9 +8575,9 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
@@ -8610,9 +8587,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
@@ -8622,9 +8599,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
@@ -8634,191 +8611,167 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="43" t="s">
+        <v>137</v>
+      </c>
       <c r="B51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="6" t="s">
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="6" t="s">
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="6" t="s">
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="6" t="s">
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="6" t="s">
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A31"/>
     <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:D60">
+  <conditionalFormatting sqref="A5:D58">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
@@ -8837,7 +8790,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14 D17 D58:D60 D48 D43 D39:D41 D37 D30:D31 D26 D21:D24" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14 D17 D56:D58 D47 D43 D39:D41 D37 D30:D31 D26 D21:D24" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be Empty" error="Cannot be empty, please enter either False or the name of an existing Load Flow Command to use (i.e. Load Flow Calculation.ComLdf)" sqref="D4" xr:uid="{A6D47467-2239-459C-B9B4-99D08878A811}"/>
@@ -8853,8 +8806,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8872,138 +8825,138 @@
       <c r="B1" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>201</v>
+      <c r="A4" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>144</v>
+      <c r="A5" s="43" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D5" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D7" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>145</v>
+      <c r="A11" s="43" t="s">
+        <v>141</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D11">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9042,6 +8995,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9193,27 +9166,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9229,28 +9206,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/test_files/Inputs_cmds.xlsx
+++ b/tests/test_files/Inputs_cmds.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286AF22-1A54-42CE-A7F7-28BE3310EFA1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94BC9D6-6217-435C-9685-7B4CF5BA191F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2850" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
     <sheet name="Study_Settings" sheetId="17" r:id="rId2"/>
     <sheet name="Base_Scenarios" sheetId="13" r:id="rId3"/>
-    <sheet name="Contingencies" sheetId="11" r:id="rId4"/>
+    <sheet name="Contingencies_Breakers" sheetId="11" r:id="rId4"/>
     <sheet name="Terminals" sheetId="12" r:id="rId5"/>
     <sheet name="Loadflow_Settings" sheetId="14" r:id="rId6"/>
     <sheet name="Frequency_Sweep" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Contingencies!$A$5:$AB$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Contingencies_Breakers!$A$5:$AB$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Terminals!$A$4:$D$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -353,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="227">
   <si>
     <t>Name</t>
   </si>
@@ -1025,9 +1027,6 @@
   </si>
   <si>
     <t>375520_LADB_G_1T1</t>
-  </si>
-  <si>
-    <t>Base_Case</t>
   </si>
   <si>
     <t>Include_Intact</t>
@@ -1414,6 +1413,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,7 +1438,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1918,7 +1917,7 @@
         <v>43977</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1976,9 +1975,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2059,13 +2058,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="13" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2258,8 +2257,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,51 +2299,51 @@
       <c r="A4" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="37" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="37" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="37" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="37" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="37" t="s">
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="37" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="37" t="s">
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="40"/>
     </row>
     <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
@@ -2434,21 +2433,31 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2468,32 +2477,44 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>206</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="3"/>
+      <c r="H7" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -2511,45 +2532,19 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>206</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -7338,7 +7333,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6:AB79 M6:M79 P6:P79 S6:S79 V6:V79 Y6:Y79 D164:D166 G164:G166 G125:G159 D120:D159 G79:G113 D61:D113 H7 F24:G24 G25:G59 G61:G77 F78:G78 J67:J79 J6:J65 G115 D115 G121 G6:G23 D6:D59" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6:AB79 D6:D59 P6:P79 S6:S79 V6:V79 Y6:Y79 D164:D166 G164:G166 G125:G159 D120:D159 G79:G113 D61:D113 J6:J65 F24:G24 G25:G59 G61:G77 F78:G78 J67:J79 G6:G23 G115 D115 G121 M6:M79 H6" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Open,Close"</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be Empty" error="Cannot be empty, please enter either False or the name of an existing Load Flow Command to use (i.e. Load Flow Calculation.ComLdf)" sqref="D3" xr:uid="{02647C8E-7295-4C24-A15C-D1F697FC91FA}"/>
@@ -8052,8 +8047,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8099,7 +8094,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>131</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -8113,7 +8108,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="6" t="s">
         <v>80</v>
       </c>
@@ -8125,7 +8120,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>88</v>
       </c>
@@ -8137,7 +8132,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>177</v>
       </c>
@@ -8149,7 +8144,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="6" t="s">
         <v>81</v>
       </c>
@@ -8161,7 +8156,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="6" t="s">
         <v>82</v>
       </c>
@@ -8173,7 +8168,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="6" t="s">
         <v>89</v>
       </c>
@@ -8185,7 +8180,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="6" t="s">
         <v>83</v>
       </c>
@@ -8197,7 +8192,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="6" t="s">
         <v>84</v>
       </c>
@@ -8209,7 +8204,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="6" t="s">
         <v>85</v>
       </c>
@@ -8221,7 +8216,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="6" t="s">
         <v>86</v>
       </c>
@@ -8233,7 +8228,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>132</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -8247,7 +8242,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="6" t="s">
         <v>90</v>
       </c>
@@ -8259,7 +8254,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="6" t="s">
         <v>91</v>
       </c>
@@ -8271,17 +8266,17 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="36" t="s">
         <v>139</v>
       </c>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="6" t="s">
         <v>92</v>
       </c>
@@ -8293,7 +8288,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="44" t="s">
         <v>133</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -8307,7 +8302,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="6" t="s">
         <v>94</v>
       </c>
@@ -8319,7 +8314,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="6" t="s">
         <v>95</v>
       </c>
@@ -8331,7 +8326,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="6" t="s">
         <v>96</v>
       </c>
@@ -8343,7 +8338,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="6" t="s">
         <v>97</v>
       </c>
@@ -8355,7 +8350,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="6" t="s">
         <v>98</v>
       </c>
@@ -8367,7 +8362,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="6" t="s">
         <v>99</v>
       </c>
@@ -8379,7 +8374,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="6" t="s">
         <v>100</v>
       </c>
@@ -8391,7 +8386,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="6" t="s">
         <v>101</v>
       </c>
@@ -8403,7 +8398,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="6" t="s">
         <v>102</v>
       </c>
@@ -8415,7 +8410,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="6" t="s">
         <v>103</v>
       </c>
@@ -8427,7 +8422,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="44" t="s">
         <v>134</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -8441,7 +8436,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="6" t="s">
         <v>105</v>
       </c>
@@ -8453,7 +8448,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="6" t="s">
         <v>106</v>
       </c>
@@ -8465,7 +8460,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="6" t="s">
         <v>107</v>
       </c>
@@ -8477,7 +8472,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="6" t="s">
         <v>108</v>
       </c>
@@ -8489,7 +8484,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="6" t="s">
         <v>109</v>
       </c>
@@ -8501,7 +8496,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="6" t="s">
         <v>110</v>
       </c>
@@ -8513,7 +8508,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="6" t="s">
         <v>111</v>
       </c>
@@ -8525,7 +8520,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="44" t="s">
         <v>135</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -8539,7 +8534,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="6" t="s">
         <v>113</v>
       </c>
@@ -8551,7 +8546,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="6" t="s">
         <v>114</v>
       </c>
@@ -8563,7 +8558,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="6" t="s">
         <v>115</v>
       </c>
@@ -8575,7 +8570,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="6" t="s">
         <v>116</v>
       </c>
@@ -8587,7 +8582,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="6" t="s">
         <v>117</v>
       </c>
@@ -8599,7 +8594,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="6" t="s">
         <v>118</v>
       </c>
@@ -8611,7 +8606,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="6" t="s">
         <v>119</v>
       </c>
@@ -8623,7 +8618,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B48" s="6" t="s">
@@ -8637,7 +8632,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="6" t="s">
         <v>121</v>
       </c>
@@ -8649,7 +8644,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="6" t="s">
         <v>122</v>
       </c>
@@ -8661,7 +8656,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="44" t="s">
         <v>137</v>
       </c>
       <c r="B51" s="6" t="s">
@@ -8675,7 +8670,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="6" t="s">
         <v>124</v>
       </c>
@@ -8687,7 +8682,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="6" t="s">
         <v>125</v>
       </c>
@@ -8699,7 +8694,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="6" t="s">
         <v>126</v>
       </c>
@@ -8711,7 +8706,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="6" t="s">
         <v>127</v>
       </c>
@@ -8723,7 +8718,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="6" t="s">
         <v>128</v>
       </c>
@@ -8735,7 +8730,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="44" t="s">
         <v>138</v>
       </c>
       <c r="B57" s="6" t="s">
@@ -8749,7 +8744,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="6" t="s">
         <v>130</v>
       </c>
@@ -8839,7 +8834,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -8853,7 +8848,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="6" t="s">
         <v>152</v>
       </c>
@@ -8865,7 +8860,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>153</v>
       </c>
@@ -8877,7 +8872,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>154</v>
       </c>
@@ -8889,7 +8884,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="6" t="s">
         <v>155</v>
       </c>
@@ -8901,7 +8896,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="6" t="s">
         <v>156</v>
       </c>
@@ -8913,7 +8908,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>141</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -8927,7 +8922,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="6" t="s">
         <v>158</v>
       </c>
@@ -8939,7 +8934,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="6" t="s">
         <v>159</v>
       </c>
@@ -8951,7 +8946,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="6" t="s">
         <v>160</v>
       </c>
@@ -8995,26 +8990,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9166,31 +9141,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9206,4 +9177,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>